--- a/inst/tutorials/sesion1/plantel.xlsx
+++ b/inst/tutorials/sesion1/plantel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\R\introR4hr\inst\tutorials\sesion1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B7AB26-93B7-4360-9730-1FF084441783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A7E4DC-A813-4A47-A703-62202C677026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
